--- a/mothly_report.xlsx
+++ b/mothly_report.xlsx
@@ -59,18 +59,6 @@
     <t>10월</t>
   </si>
   <si>
-    <t>전체 risk</t>
-  </si>
-  <si>
-    <t>전체 Issue</t>
-  </si>
-  <si>
-    <t>검색 risk</t>
-  </si>
-  <si>
-    <t>광고 risk</t>
-  </si>
-  <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,15 +67,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_검색_가동률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_광고_가동률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_전체 가동률</t>
+    <t>All Risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team1 risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team2 risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Team1_가동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Team2_가동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_All 가동률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,16 +534,16 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>17</v>
@@ -813,7 +817,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>49</v>
@@ -839,7 +843,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>41</v>
